--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/139.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/139.xlsx
@@ -479,13 +479,13 @@
         <v>0.01812685242154201</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.922754539108674</v>
+        <v>-2.242768939626198</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0767258484094448</v>
+        <v>-0.2096624053576058</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1276561306861224</v>
+        <v>-0.002208865733935368</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.02548433709476447</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.061687760144437</v>
+        <v>-2.469350811514041</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03370631331637403</v>
+        <v>-0.2617959851233228</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1193270539244509</v>
+        <v>0.005593849483702537</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.02481416800182813</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.179636050376007</v>
+        <v>-2.645528228754748</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01674807882007102</v>
+        <v>-0.1864829799584726</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1349233355495755</v>
+        <v>-0.005308482613168998</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.0009284238177596912</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.23813049287953</v>
+        <v>-2.775314469401321</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03733534134302497</v>
+        <v>-0.04194031845865736</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.15621383661282</v>
+        <v>-0.003384792798705624</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.05890574859395981</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.15780028022775</v>
+        <v>-2.743915143041654</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04891895483582408</v>
+        <v>-0.03582952319831856</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.151188090236416</v>
+        <v>-0.05912910297077113</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1396559798610685</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.885917769915798</v>
+        <v>-2.422705297997704</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1564363816536485</v>
+        <v>0.1061557409038921</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1552141766236299</v>
+        <v>-0.02535779509923116</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.223212357268738</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.543786425818036</v>
+        <v>-2.141020752489734</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2216167746156832</v>
+        <v>0.1146068018009132</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1354704343966185</v>
+        <v>-0.05138920958283827</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2891797528221728</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.142204893516286</v>
+        <v>-1.607823217511168</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2596648462725805</v>
+        <v>0.1673807982772156</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1108430573108855</v>
+        <v>-0.07513342152864017</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.3178177607773592</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6711668143878216</v>
+        <v>-1.095044606948773</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2602345121846633</v>
+        <v>0.09785898993808825</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06999240014433079</v>
+        <v>0.006986908309395102</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.290599325578747</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0975138508412334</v>
+        <v>-0.5391940081151071</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2266083654341893</v>
+        <v>0.0197074139436526</v>
       </c>
       <c r="G11" t="n">
-        <v>0.004222747802372903</v>
+        <v>0.1003218496307969</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1940614171273002</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4731029275765029</v>
+        <v>0.06027689767822642</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06374612648756937</v>
+        <v>-0.2860854661541375</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06486411108804857</v>
+        <v>0.1923600995934324</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.02565805623436767</v>
       </c>
       <c r="E13" t="n">
-        <v>1.04834656424805</v>
+        <v>0.5402027409082638</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0787484213797259</v>
+        <v>-0.3990903493006642</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1706835187418064</v>
+        <v>0.2838170951511269</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1996557219259028</v>
       </c>
       <c r="E14" t="n">
-        <v>1.64634390168636</v>
+        <v>1.172664866027576</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2924158328581056</v>
+        <v>-0.6780320815252977</v>
       </c>
       <c r="G14" t="n">
-        <v>0.267071722971009</v>
+        <v>0.514310998259632</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.46008020335647</v>
       </c>
       <c r="E15" t="n">
-        <v>2.265858630679665</v>
+        <v>1.644409233299715</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.5766022729820957</v>
+        <v>-0.9793993771926038</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3780730166944183</v>
+        <v>0.5671996598231631</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.7367944897480356</v>
       </c>
       <c r="E16" t="n">
-        <v>2.787601855348903</v>
+        <v>2.230280737763597</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.8328653246832062</v>
+        <v>-1.242857663117311</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4905612970277393</v>
+        <v>0.5965624610431681</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.020716492551334</v>
       </c>
       <c r="E17" t="n">
-        <v>3.289852015189273</v>
+        <v>2.68316757755204</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.133706258806479</v>
+        <v>-1.585587339398964</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6047128310465524</v>
+        <v>0.652877047047993</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.300360298559582</v>
       </c>
       <c r="E18" t="n">
-        <v>3.706096040560045</v>
+        <v>2.955448366065908</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.474067003179642</v>
+        <v>-1.903104724665882</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7614038925858354</v>
+        <v>0.7989024257129828</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.557828674137069</v>
       </c>
       <c r="E19" t="n">
-        <v>4.094814345789178</v>
+        <v>3.018547099758202</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.79888025958182</v>
+        <v>-2.276628685995867</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9064052144345652</v>
+        <v>0.8630215566974759</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.778284672392293</v>
       </c>
       <c r="E20" t="n">
-        <v>4.450307832073137</v>
+        <v>3.281255793171185</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.10267747922529</v>
+        <v>-2.540160772322461</v>
       </c>
       <c r="G20" t="n">
-        <v>1.049343784554533</v>
+        <v>0.9679724373075445</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.953270614301329</v>
       </c>
       <c r="E21" t="n">
-        <v>4.660770720315883</v>
+        <v>3.521404740592612</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.395063083006805</v>
+        <v>-2.832855605887086</v>
       </c>
       <c r="G21" t="n">
-        <v>1.171426727053778</v>
+        <v>1.103939614092282</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.083977740621157</v>
       </c>
       <c r="E22" t="n">
-        <v>4.852077219943324</v>
+        <v>3.602621777908384</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.691757166448867</v>
+        <v>-3.050473473588763</v>
       </c>
       <c r="G22" t="n">
-        <v>1.316878780282625</v>
+        <v>1.015690191373606</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.169554291857196</v>
       </c>
       <c r="E23" t="n">
-        <v>4.976279026873592</v>
+        <v>3.694540483418376</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.992067469583369</v>
+        <v>-3.310353659863328</v>
       </c>
       <c r="G23" t="n">
-        <v>1.41611531407224</v>
+        <v>1.218334506461118</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.210222876366875</v>
       </c>
       <c r="E24" t="n">
-        <v>5.072024374709502</v>
+        <v>3.657130388789358</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.182899145963963</v>
+        <v>-3.382381327302875</v>
       </c>
       <c r="G24" t="n">
-        <v>1.52599313390908</v>
+        <v>1.280833688128168</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.209670594301525</v>
       </c>
       <c r="E25" t="n">
-        <v>5.12215863449684</v>
+        <v>3.686856702732705</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.33018919515219</v>
+        <v>-3.453043077386844</v>
       </c>
       <c r="G25" t="n">
-        <v>1.589987841075516</v>
+        <v>1.319683805474989</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.174763679468171</v>
       </c>
       <c r="E26" t="n">
-        <v>5.11392470536074</v>
+        <v>3.423824751361044</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.425008378440458</v>
+        <v>-3.433771108803298</v>
       </c>
       <c r="G26" t="n">
-        <v>1.63302567378889</v>
+        <v>1.316856823138262</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.115639626620097</v>
       </c>
       <c r="E27" t="n">
-        <v>5.037628508064972</v>
+        <v>3.43753210865028</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.523413590347666</v>
+        <v>-3.414806540240832</v>
       </c>
       <c r="G27" t="n">
-        <v>1.633710614708878</v>
+        <v>1.26134428282336</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.041066611385576</v>
       </c>
       <c r="E28" t="n">
-        <v>4.952982496704523</v>
+        <v>3.279795643071051</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.535421098710806</v>
+        <v>-3.299366853752727</v>
       </c>
       <c r="G28" t="n">
-        <v>1.623911629116243</v>
+        <v>1.164308342835451</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.960445061873299</v>
       </c>
       <c r="E29" t="n">
-        <v>4.780648189648006</v>
+        <v>3.016461171043723</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.509030745908932</v>
+        <v>-3.209066572758485</v>
       </c>
       <c r="G29" t="n">
-        <v>1.582842010426736</v>
+        <v>1.147969177826048</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.879071498789193</v>
       </c>
       <c r="E30" t="n">
-        <v>4.634103768487104</v>
+        <v>2.837151811127915</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.387810841167286</v>
+        <v>-2.932337327788755</v>
       </c>
       <c r="G30" t="n">
-        <v>1.53388367770417</v>
+        <v>1.001425976506499</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.79968416629998</v>
       </c>
       <c r="E31" t="n">
-        <v>4.439180439246545</v>
+        <v>2.678319928013246</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.317457710945751</v>
+        <v>-2.94624168945658</v>
       </c>
       <c r="G31" t="n">
-        <v>1.449317565952374</v>
+        <v>0.8414974560150369</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.720973077914676</v>
       </c>
       <c r="E32" t="n">
-        <v>4.211894718897735</v>
+        <v>2.362867734157797</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.184347097650563</v>
+        <v>-2.790502104173024</v>
       </c>
       <c r="G32" t="n">
-        <v>1.397189475472748</v>
+        <v>0.8046411693605052</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.643625661789961</v>
       </c>
       <c r="E33" t="n">
-        <v>3.959514422224803</v>
+        <v>2.105418996661089</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.055166508236001</v>
+        <v>-2.739940289991287</v>
       </c>
       <c r="G33" t="n">
-        <v>1.284864043960119</v>
+        <v>0.6380754920646712</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.568087855567206</v>
       </c>
       <c r="E34" t="n">
-        <v>3.650115081165402</v>
+        <v>1.833380956576566</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.81102715478695</v>
+        <v>-2.451966852385368</v>
       </c>
       <c r="G34" t="n">
-        <v>1.153800019495759</v>
+        <v>0.5261233320062116</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.495486985775014</v>
       </c>
       <c r="E35" t="n">
-        <v>3.405982131883456</v>
+        <v>1.678869141615304</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.696045518727083</v>
+        <v>-2.390286184266514</v>
       </c>
       <c r="G35" t="n">
-        <v>1.064894932049578</v>
+        <v>0.5082447272086957</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.425573604714607</v>
       </c>
       <c r="E36" t="n">
-        <v>3.116264931062715</v>
+        <v>1.471610166687516</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.554687253080569</v>
+        <v>-2.143258551452722</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9891641312211558</v>
+        <v>0.3899036480613003</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.355689395605772</v>
       </c>
       <c r="E37" t="n">
-        <v>2.833356884677189</v>
+        <v>1.231408156167212</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.4319675533948</v>
+        <v>-2.136626274013764</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8999174881959962</v>
+        <v>0.4210919418668123</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.284353351303261</v>
       </c>
       <c r="E38" t="n">
-        <v>2.569784543585929</v>
+        <v>0.9810192505038622</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.312457256310078</v>
+        <v>-1.966953660790575</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8199739652532747</v>
+        <v>0.382634613435817</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.208757440813185</v>
       </c>
       <c r="E39" t="n">
-        <v>2.310909811546983</v>
+        <v>0.8684199646073729</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.200789319286983</v>
+        <v>-1.86524694826013</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7183947261442694</v>
+        <v>0.2393020345586699</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.129659712138879</v>
       </c>
       <c r="E40" t="n">
-        <v>2.056365516312949</v>
+        <v>0.6203945015664217</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.128223396850206</v>
+        <v>-1.881864237098131</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6397308167813653</v>
+        <v>0.1741234713586654</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.046051845047799</v>
       </c>
       <c r="E41" t="n">
-        <v>1.767561976665976</v>
+        <v>0.3543416130828281</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.03096361597393</v>
+        <v>-1.792782272655693</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5577733357640219</v>
+        <v>0.2144282495195306</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.9585975482691852</v>
       </c>
       <c r="E42" t="n">
-        <v>1.545289804280035</v>
+        <v>0.1004243163044906</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.948116870609888</v>
+        <v>-1.791209897151036</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4916920899624302</v>
+        <v>0.2042071988185866</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8681987927352212</v>
       </c>
       <c r="E43" t="n">
-        <v>1.302548084061752</v>
+        <v>0.01254877496066064</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.847867258576194</v>
+        <v>-1.664389090834813</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4236462896610332</v>
+        <v>0.1140719013674051</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.7754888762191371</v>
       </c>
       <c r="E44" t="n">
-        <v>1.12390536744563</v>
+        <v>-0.1385261369871263</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.770252412777297</v>
+        <v>-1.61538867358555</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3850871044770209</v>
+        <v>0.1364785572690985</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.6821277428835035</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9321621646136358</v>
+        <v>-0.1783423686859163</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.708954164922763</v>
+        <v>-1.630642789711019</v>
       </c>
       <c r="G45" t="n">
-        <v>0.313232959470009</v>
+        <v>0.08402354930673531</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.589266981304845</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7637941717180111</v>
+        <v>-0.2745658943323969</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.653902724639484</v>
+        <v>-1.65062684068467</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2264772324886885</v>
+        <v>-0.006171520370767501</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.500602920263936</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5984446762516126</v>
+        <v>-0.355723159421847</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.591969549360455</v>
+        <v>-1.597295376709819</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1637475008058275</v>
+        <v>-0.02674048527341901</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4182151806714988</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4446604966577107</v>
+        <v>-0.2953166155967193</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.482266166837166</v>
+        <v>-1.481393370348739</v>
       </c>
       <c r="G48" t="n">
-        <v>0.08174061621366732</v>
+        <v>-0.05687910559424754</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3444185788454358</v>
       </c>
       <c r="E49" t="n">
-        <v>0.335231578438958</v>
+        <v>-0.3347339591729161</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.385643753068092</v>
+        <v>-1.430722990286541</v>
       </c>
       <c r="G49" t="n">
-        <v>0.06372904870862042</v>
+        <v>-0.06456471604194981</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2806179813404924</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2418179573502556</v>
+        <v>-0.3802864948365215</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.285278866026492</v>
+        <v>-1.411719081840425</v>
       </c>
       <c r="G50" t="n">
-        <v>0.009500391418273848</v>
+        <v>-0.1312339253759265</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2278974659710321</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1117346853341066</v>
+        <v>-0.45983295941868</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.187906249825018</v>
+        <v>-1.244808189441551</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.02567800345452389</v>
+        <v>-0.1008001034475519</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1867248170266679</v>
       </c>
       <c r="E52" t="n">
-        <v>0.04619138956940677</v>
+        <v>-0.5419234031435546</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.127446032980337</v>
+        <v>-1.222775414914705</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.07521088145458717</v>
+        <v>-0.202839832667502</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1557603112603873</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.06962522789692846</v>
+        <v>-0.6146411958288418</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.051488951580841</v>
+        <v>-1.177873664613189</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1314510571368488</v>
+        <v>-0.1925205847376016</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.133424811143863</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1953152412784613</v>
+        <v>-0.7405349227164084</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9824617889105559</v>
+        <v>-1.129455721610222</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.2000512753334099</v>
+        <v>-0.3011736838555309</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1173522511624335</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.25530520928137</v>
+        <v>-0.7296033144270531</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9562644760028733</v>
+        <v>-1.144220681352939</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.2150400759644934</v>
+        <v>-0.2872979884595126</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1054791338958068</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3477600350662243</v>
+        <v>-0.7629440183008088</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9148398834794987</v>
+        <v>-1.144525641691313</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2761163126926905</v>
+        <v>-0.3281090007820787</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.09664025080293327</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.4233755608867416</v>
+        <v>-0.8604746039575606</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8882900364206557</v>
+        <v>-1.099304292955181</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.3004649560291497</v>
+        <v>-0.2741218720797243</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.09040544563532596</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.5204657838148812</v>
+        <v>-0.8888285963782243</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.8380264734498483</v>
+        <v>-1.059732639447767</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.3383007752905387</v>
+        <v>-0.3982230420983284</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.08689764728629849</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.611544628552992</v>
+        <v>-0.947227891256174</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.8448508759019823</v>
+        <v>-1.190605758740305</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.351014571797352</v>
+        <v>-0.3507754828920667</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.08556453944826302</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.7651690089295857</v>
+        <v>-1.183114103067809</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.8750138930498808</v>
+        <v>-1.173760969489877</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3872761857920543</v>
+        <v>-0.3535408632404424</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.08609913925076811</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.9055331038730001</v>
+        <v>-1.368410444346576</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8816297026305669</v>
+        <v>-1.127880906422858</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.4237232156724879</v>
+        <v>-0.3228661226447523</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.08772366679891312</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.9888281409344521</v>
+        <v>-1.368445819745827</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8638474652999774</v>
+        <v>-1.054434868449534</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4574304818729694</v>
+        <v>-0.3615918161735168</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.08885149034628975</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.088350117600786</v>
+        <v>-1.525938926975034</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.9116548777055203</v>
+        <v>-1.119610991966831</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4850019460653653</v>
+        <v>-0.3636698159191974</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.08802013600911821</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.175338224359948</v>
+        <v>-1.71414824940595</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.9360602436649171</v>
+        <v>-1.145711937407587</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5100355303218126</v>
+        <v>-0.3668779986788922</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.08341424977399199</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.252809738799809</v>
+        <v>-1.718679960034188</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.9630370351974837</v>
+        <v>-1.17870254681289</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5325794183757744</v>
+        <v>-0.3657289081238989</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.0742277794978303</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.311479838458235</v>
+        <v>-1.748391635881293</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9776019409582274</v>
+        <v>-1.269891177272815</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.5726152215181937</v>
+        <v>-0.4503932171046503</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.06011685066530434</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.368872764219551</v>
+        <v>-1.761270110970828</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.031494531955686</v>
+        <v>-1.307250648485664</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6051971840700748</v>
+        <v>-0.4199667142243967</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.04136336091360367</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.426060756633479</v>
+        <v>-1.800014102119895</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.049925724886335</v>
+        <v>-1.297099738662546</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6262089513840455</v>
+        <v>-0.4639255271596595</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.01885967155607852</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.434713091353827</v>
+        <v>-1.636892646885657</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.112551770054149</v>
+        <v>-1.466937640389134</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6256929584915166</v>
+        <v>-0.4403380648277818</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.006569265204759854</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.449556120943168</v>
+        <v>-1.622983405852417</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.114425446373119</v>
+        <v>-1.340459609493242</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6505569847998279</v>
+        <v>-0.4262690245772344</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.03500817329956037</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.450072723756373</v>
+        <v>-1.621326251373693</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.149968573810612</v>
+        <v>-1.432286216981046</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6435136208247414</v>
+        <v>-0.3742043658479899</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.06789082834621318</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.440516486593085</v>
+        <v>-1.505980492669807</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.241012043149472</v>
+        <v>-1.644650837893892</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6578498063317045</v>
+        <v>-0.4605435170070915</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1056199570852513</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.365291919926363</v>
+        <v>-1.51122581048984</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.301556429047544</v>
+        <v>-1.582453566961832</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6705526242663363</v>
+        <v>-0.4950418503253151</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1476742790113136</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.295893925484615</v>
+        <v>-1.456293304738527</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.346147729724595</v>
+        <v>-1.691321358157977</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6866899055317364</v>
+        <v>-0.491066997274948</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1924962770952862</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.168655933425496</v>
+        <v>-1.265526584910006</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.37731284654439</v>
+        <v>-1.746080036516418</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6847460883349403</v>
+        <v>-0.4992466434708163</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2384088547056759</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.020664780419347</v>
+        <v>-1.126436004339642</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.409429439619913</v>
+        <v>-1.795498859349929</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6360378230898405</v>
+        <v>-0.4704028847467238</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2835485515512075</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.896045787746184</v>
+        <v>-1.036639212864056</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.453917663702593</v>
+        <v>-1.815936081386403</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6175163618990321</v>
+        <v>-0.3777193387080889</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3263660188194493</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7246025747983956</v>
+        <v>-0.8384820841953791</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.513877135671664</v>
+        <v>-1.892285951701725</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5585742376187766</v>
+        <v>-0.4302621752479039</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3659090541662291</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.5280550267956573</v>
+        <v>-0.6196309568853177</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.523277843062382</v>
+        <v>-1.823404560073183</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5066693781068401</v>
+        <v>-0.408703919007567</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4013910472597075</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.3186967048985027</v>
+        <v>-0.4749614318847388</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.618127217424149</v>
+        <v>-2.040483257896614</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.461571233347412</v>
+        <v>-0.3349151056139102</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4324404553639736</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.08097097232579584</v>
+        <v>-0.1737887009133153</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.6121347467751</v>
+        <v>-1.999623451919908</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.436989600312435</v>
+        <v>-0.288999057226963</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4583319060922722</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1389774022817353</v>
+        <v>0.1682249284938349</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.650355425983517</v>
+        <v>-2.031203924720569</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.33264010148964</v>
+        <v>-0.1987332367509574</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.479573996998868</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3792898084445306</v>
+        <v>0.3236784609799962</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.67096525557151</v>
+        <v>-2.055644056158541</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2900877656349583</v>
+        <v>-0.1086473428745925</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.496563541142697</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6378522610969813</v>
+        <v>0.5944393271674081</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.644963117280387</v>
+        <v>-1.958084804229982</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2056113122226452</v>
+        <v>-0.07582690133810271</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.5093346434848393</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8482261009209215</v>
+        <v>0.7237449503207034</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.617582558259813</v>
+        <v>-1.950410782275138</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1539101662167426</v>
+        <v>-0.0242617676431149</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.5177528181147607</v>
       </c>
       <c r="E86" t="n">
-        <v>1.076579182454041</v>
+        <v>1.070788595548995</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.539229708442051</v>
+        <v>-1.951275649794767</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.09728452066677613</v>
+        <v>-0.04833655659571424</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.521324536125481</v>
       </c>
       <c r="E87" t="n">
-        <v>1.257806132977545</v>
+        <v>1.279136278884778</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.416086723806618</v>
+        <v>-1.905359601407819</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.0249686657074659</v>
+        <v>0.03727007983061292</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.5200304773459038</v>
       </c>
       <c r="E88" t="n">
-        <v>1.415632866816933</v>
+        <v>1.464738190422596</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.332329366872191</v>
+        <v>-1.853145512112772</v>
       </c>
       <c r="G88" t="n">
-        <v>0.003082806057530783</v>
+        <v>0.09832008996970978</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.5137293559538588</v>
       </c>
       <c r="E89" t="n">
-        <v>1.504704462607866</v>
+        <v>1.475851555073622</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.15929426095809</v>
+        <v>-1.646952678527939</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03342696964642342</v>
+        <v>0.1003944301913299</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.5030913591194182</v>
       </c>
       <c r="E90" t="n">
-        <v>1.650984788115736</v>
+        <v>1.527561849889676</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.035238225069565</v>
+        <v>-1.614523806065922</v>
       </c>
       <c r="G90" t="n">
-        <v>0.08220964521408658</v>
+        <v>0.10988662568356</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.488690131274796</v>
       </c>
       <c r="E91" t="n">
-        <v>1.717799158570779</v>
+        <v>1.611356411985385</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8111198227951077</v>
+        <v>-1.287123266152978</v>
       </c>
       <c r="G91" t="n">
-        <v>0.08794533925822533</v>
+        <v>0.1233786809739037</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.47112154843193</v>
       </c>
       <c r="E92" t="n">
-        <v>1.789235507914218</v>
+        <v>1.695990224932299</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6114787571199032</v>
+        <v>-1.033706714250251</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1188695374107054</v>
+        <v>0.1613462431014704</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.4502691955139267</v>
       </c>
       <c r="E93" t="n">
-        <v>1.833128449416392</v>
+        <v>1.734770201401294</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.39835966432992</v>
+        <v>-0.7734462424337336</v>
       </c>
       <c r="G93" t="n">
-        <v>0.094564808362972</v>
+        <v>0.1676186673411474</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.427047498957273</v>
       </c>
       <c r="E94" t="n">
-        <v>1.847890969476403</v>
+        <v>1.839112381175968</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.247296950795668</v>
+        <v>-0.5619141632446489</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02782362838913901</v>
+        <v>0.1249266596514903</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.4032859463441525</v>
       </c>
       <c r="E95" t="n">
-        <v>1.821900419678137</v>
+        <v>1.844110681121918</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.09616165670088296</v>
+        <v>-0.3735755376302626</v>
       </c>
       <c r="G95" t="n">
-        <v>0.007742600027885946</v>
+        <v>0.1573500428274171</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.3805522225042108</v>
       </c>
       <c r="E96" t="n">
-        <v>1.7976640017462</v>
+        <v>1.875756415434991</v>
       </c>
       <c r="F96" t="n">
-        <v>0.02601948302731825</v>
+        <v>-0.2090317473778483</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02654165113279914</v>
+        <v>0.08758304637623697</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3604296519752994</v>
       </c>
       <c r="E97" t="n">
-        <v>1.675958600145862</v>
+        <v>1.782999678915146</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1113980091205416</v>
+        <v>-0.03150213599679109</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.0414383537416937</v>
+        <v>0.1332264602206779</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3398893843963777</v>
       </c>
       <c r="E98" t="n">
-        <v>1.554225142194394</v>
+        <v>1.721941739807252</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1490051081281502</v>
+        <v>0.1179869821914509</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.07026686444886741</v>
+        <v>0.07907526285627832</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3176228432899578</v>
       </c>
       <c r="E99" t="n">
-        <v>1.406383419754049</v>
+        <v>1.611907780277165</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1874850036241851</v>
+        <v>0.1936775282552081</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.08602538497400698</v>
+        <v>0.02167135852278134</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2879532269248555</v>
       </c>
       <c r="E100" t="n">
-        <v>1.238258175287769</v>
+        <v>1.449978719965969</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2263326812882992</v>
+        <v>0.2222144968788963</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1043443525001349</v>
+        <v>0.09672819700339735</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2540009807220844</v>
       </c>
       <c r="E101" t="n">
-        <v>1.116407002645689</v>
+        <v>1.291870812694601</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2322629400283205</v>
+        <v>0.276256518442158</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1316620896910037</v>
+        <v>-0.03618205734947894</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2113343705430626</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9512715893368291</v>
+        <v>1.110265101430836</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2307155712714107</v>
+        <v>0.256381033348969</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1434116016078783</v>
+        <v>-0.0001949076593132806</v>
       </c>
     </row>
   </sheetData>
